--- a/HomeWork_db_002.xlsx
+++ b/HomeWork_db_002.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\GeekBrains\Знакомство с базами данных\Семинары\Урок 2. Работа с данными из разных таблиц\HomeWork_db_002\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6B00D-DA68-4302-A967-66843BEA6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Чему будет равна выборка" sheetId="1" r:id="rId1"/>
+    <sheet name="Что будет результатом JOINов" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,197 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
+  <si>
+    <t>Общий список</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО               </t>
+  </si>
+  <si>
+    <t>Д/р</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Тел</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Иванов И. И.</t>
+  </si>
+  <si>
+    <t>женат</t>
+  </si>
+  <si>
+    <t>интернет</t>
+  </si>
+  <si>
+    <t>Можга</t>
+  </si>
+  <si>
+    <t>Работа</t>
+  </si>
+  <si>
+    <t>старый</t>
+  </si>
+  <si>
+    <t>холост</t>
+  </si>
+  <si>
+    <t>личный</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Школа</t>
+  </si>
+  <si>
+    <t>Петров П. П.</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Родня</t>
+  </si>
+  <si>
+    <t>рабочий</t>
+  </si>
+  <si>
+    <t>Васильев В. В.</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t>Друзья</t>
+  </si>
+  <si>
+    <t>Сидоров С.С.</t>
+  </si>
+  <si>
+    <t>Киров</t>
+  </si>
+  <si>
+    <t>Александров А.А.</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>Борисов Б.Б</t>
+  </si>
+  <si>
+    <t>Михайлов М.М.</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Университет</t>
+  </si>
+  <si>
+    <t>Кириллов К.К.</t>
+  </si>
+  <si>
+    <t>1. SELECT ФИО, Д/р, Адрес FROM Общий список</t>
+  </si>
+  <si>
+    <t>2. SELECT ФИО, Статус FROM Общий список WHERE Адрес = «Можга»</t>
+  </si>
+  <si>
+    <t>3. SELECT ФИО FROM Общий список WHERE Адрес = «Москва» AND Группа = «Работа»</t>
+  </si>
+  <si>
+    <t>4. SELECT Д/р FROM Общий список WHERE Адрес = «Москва» OR Группа = «Работа»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО  </t>
+  </si>
+  <si>
+    <t>Что будет результатом следующих JOIN’ов:</t>
+  </si>
+  <si>
+    <t>1. INNER JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>2. LEFT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>3. RIGHT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>4. FULL JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>Люди</t>
+  </si>
+  <si>
+    <t>Телефоны</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Чей телефон</t>
+  </si>
+  <si>
+    <t>Коммент</t>
+  </si>
+  <si>
+    <t>Чей адрес</t>
+  </si>
+  <si>
+    <t>Место рождения</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>По прописке</t>
+  </si>
+  <si>
+    <t>для поездок</t>
+  </si>
+  <si>
+    <t>Рабочий</t>
+  </si>
+  <si>
+    <t>Кузьмин К.К.</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Чему будет равна выборка</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +223,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,15 +333,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +906,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>32916</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>126</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <v>32916</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11">
+        <v>127</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>37152</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <v>527</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12">
+        <v>30429</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>234</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
+        <v>30430</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8">
+        <v>235</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12">
+        <v>35936</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11">
+        <v>456</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="15">
+        <v>39276</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10">
+        <v>643</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="16">
+        <v>39276</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13">
+        <v>654</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15">
+        <v>31841</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10">
+        <v>412</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="16">
+        <v>32736</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13">
+        <v>723</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15">
+        <v>35438</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10">
+        <v>876</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16">
+        <v>35438</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13">
+        <v>875</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="15">
+        <v>35402</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10">
+        <v>933</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28">
+        <v>32916</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="29">
+        <v>32916</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28">
+        <v>37152</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29">
+        <v>30429</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28">
+        <v>30430</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="29">
+        <v>35936</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="30">
+        <v>39276</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="31">
+        <v>39276</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="30">
+        <v>31841</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="31">
+        <v>32736</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="30">
+        <v>35438</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="31">
+        <v>35438</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="30">
+        <v>35402</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="38">
+        <v>30429</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="38">
+        <v>30430</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="38">
+        <v>32736</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="38">
+        <v>32916</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="38">
+        <v>32916</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="38">
+        <v>35402</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E4110-492C-475B-85B6-2D8BE1B4FA9F}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="3.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="42"/>
+    <col min="4" max="4" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="42"/>
+    <col min="8" max="8" width="11" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="42"/>
+    <col min="11" max="11" width="6.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="47">
+        <v>32916</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1</v>
+      </c>
+      <c r="H5" s="46">
+        <v>123</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="48">
+        <v>1</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="50">
+        <v>2</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>124</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="52">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="46">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="47">
+        <v>30429</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1</v>
+      </c>
+      <c r="H7" s="46">
+        <v>125</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="48">
+        <v>1</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="50">
+        <v>4</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1</v>
+      </c>
+      <c r="H8" s="50">
+        <v>126</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="52">
+        <v>2</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>25</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="47">
+        <v>43972</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="46">
+        <v>1</v>
+      </c>
+      <c r="H9" s="46">
+        <v>127</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="48">
+        <v>3</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="50">
+        <v>2</v>
+      </c>
+      <c r="H10" s="50">
+        <v>527</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="52">
+        <v>4</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="46">
+        <v>3</v>
+      </c>
+      <c r="H11" s="46">
+        <v>234</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="48">
+        <v>5</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="50">
+        <v>3</v>
+      </c>
+      <c r="H12" s="50">
+        <v>235</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="52">
+        <v>6</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="46">
+        <v>4</v>
+      </c>
+      <c r="H13" s="46">
+        <v>456</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="48">
+        <v>7</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="50">
+        <v>11</v>
+      </c>
+      <c r="H14" s="50">
+        <v>999</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="52">
+        <v>8</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="46">
+        <v>12</v>
+      </c>
+      <c r="H15" s="46">
+        <v>997</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="48">
+        <v>9</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="50">
+        <v>13</v>
+      </c>
+      <c r="H16" s="50">
+        <v>995</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="52">
+        <v>10</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G17" s="46">
+        <v>14</v>
+      </c>
+      <c r="H17" s="46">
+        <v>993</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G18" s="50">
+        <v>15</v>
+      </c>
+      <c r="H18" s="50">
+        <v>991</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HomeWork_db_002.xlsx
+++ b/HomeWork_db_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\GeekBrains\Знакомство с базами данных\Семинары\Урок 2. Работа с данными из разных таблиц\HomeWork_db_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6B00D-DA68-4302-A967-66843BEA6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC7A74-8A10-403F-A576-04E14163EE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="62">
   <si>
     <t>Общий список</t>
   </si>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">ФИО  </t>
   </si>
   <si>
-    <t>Что будет результатом следующих JOIN’ов:</t>
-  </si>
-  <si>
     <t>1. INNER JOIN Люди, Адреса ON id = Чей адрес</t>
   </si>
   <si>
@@ -209,6 +206,12 @@
   </si>
   <si>
     <t>Чему будет равна выборка</t>
+  </si>
+  <si>
+    <t>Что будет результатом следующих JOIN’ов</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
@@ -269,24 +272,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,32 +311,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,142 +497,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -951,7 +1066,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="4"/>
       <c r="J3" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -1333,7 +1448,7 @@
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1758,94 +1873,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E4110-492C-475B-85B6-2D8BE1B4FA9F}">
-  <dimension ref="B2:O18"/>
+  <dimension ref="A2:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="3.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="42"/>
-    <col min="4" max="4" width="11.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="42"/>
-    <col min="8" max="8" width="11" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="42"/>
+    <col min="2" max="2" width="8.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="20" style="42" customWidth="1"/>
+    <col min="5" max="5" width="18" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="42"/>
+    <col min="7" max="7" width="12" style="42" customWidth="1"/>
+    <col min="8" max="8" width="11" style="42" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="42"/>
     <col min="11" max="11" width="6.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="42"/>
+    <col min="12" max="12" width="28.28515625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="21" style="42" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="42"/>
+    <col min="15" max="15" width="12.7109375" style="42" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="42" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="42" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="K3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="O3" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+    </row>
+    <row r="4" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="60" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="46">
-        <v>1</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="49">
         <v>32916</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="46">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46">
+      <c r="F5" s="44"/>
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+      <c r="H5" s="48">
         <v>123</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="48" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="48">
@@ -1855,13 +2007,17 @@
         <v>11</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="54" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
       <c r="B6" s="50">
         <v>2</v>
       </c>
@@ -1874,6 +2030,7 @@
       <c r="E6" s="50" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="44"/>
       <c r="G6" s="50">
         <v>1</v>
       </c>
@@ -1883,55 +2040,64 @@
       <c r="I6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="52">
-        <v>1</v>
-      </c>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="50">
+        <v>1</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="O6" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="47">
+        <v>1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>125</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="46">
-        <v>3</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="47">
-        <v>30429</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46">
-        <v>125</v>
-      </c>
-      <c r="I7" s="46" t="s">
+      <c r="K7" s="47">
+        <v>1</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="48">
-        <v>1</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
       <c r="B8" s="50">
         <v>4</v>
       </c>
@@ -1944,88 +2110,92 @@
       <c r="E8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="50">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50">
+      <c r="F8" s="44"/>
+      <c r="G8" s="48">
+        <v>1</v>
+      </c>
+      <c r="H8" s="48">
         <v>126</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="48">
         <v>2</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="46">
+      <c r="M8" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="48">
         <v>25</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="47">
+      <c r="C9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="49">
         <v>43972</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="46">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="F9" s="44"/>
+      <c r="G9" s="50">
+        <v>1</v>
+      </c>
+      <c r="H9" s="50">
         <v>127</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="50">
         <v>3</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G10" s="50">
+      <c r="M9" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="G10" s="47">
         <v>2</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="47">
         <v>527</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="47">
         <v>4</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G11" s="46">
+      <c r="M10" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="48">
         <v>3</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="48">
         <v>234</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="48" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="48">
@@ -2035,10 +2205,10 @@
         <v>28</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G12" s="50">
         <v>3</v>
       </c>
@@ -2048,108 +2218,108 @@
       <c r="I12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="50">
         <v>6</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="47">
+        <v>4</v>
+      </c>
+      <c r="H13" s="47">
+        <v>456</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="47">
+        <v>7</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="48">
+        <v>11</v>
+      </c>
+      <c r="H14" s="48">
+        <v>999</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="48">
+        <v>8</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="50">
+        <v>12</v>
+      </c>
+      <c r="H15" s="50">
+        <v>997</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="50">
+        <v>9</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="47">
+        <v>13</v>
+      </c>
+      <c r="H16" s="47">
+        <v>995</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="47">
+        <v>10</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="48">
+        <v>14</v>
+      </c>
+      <c r="H17" s="48">
+        <v>993</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G13" s="46">
-        <v>4</v>
-      </c>
-      <c r="H13" s="46">
-        <v>456</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="48">
-        <v>7</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G14" s="50">
-        <v>11</v>
-      </c>
-      <c r="H14" s="50">
-        <v>999</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="52">
-        <v>8</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G15" s="46">
-        <v>12</v>
-      </c>
-      <c r="H15" s="46">
-        <v>997</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="48">
-        <v>9</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G16" s="50">
-        <v>13</v>
-      </c>
-      <c r="H16" s="50">
-        <v>995</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="52">
-        <v>10</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G17" s="46">
-        <v>14</v>
-      </c>
-      <c r="H17" s="46">
-        <v>993</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G18" s="50">
         <v>15</v>
       </c>
@@ -2157,8 +2327,1064 @@
         <v>991</v>
       </c>
       <c r="I18" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="48">
+        <v>1</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="48">
+        <v>1</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="47">
+        <v>1</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="54" t="s">
         <v>54</v>
       </c>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="50">
+        <v>2</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="48">
+        <v>2</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="48">
+        <v>3</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="50">
+        <v>3</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="50">
+        <v>4</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="47">
+        <v>4</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="48">
+        <v>1</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="48">
+        <v>1</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="54"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="48">
+        <v>1</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="50">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="48">
+        <v>1</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="47">
+        <v>1</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="50">
+        <v>2</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="48">
+        <v>2</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="48">
+        <v>3</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="50">
+        <v>3</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="50">
+        <v>4</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="47">
+        <v>4</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="48">
+        <v>25</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="49">
+        <v>43972</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="48">
+        <v>1</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="48">
+        <v>1</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="48">
+        <v>1</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="48">
+        <v>1</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="47">
+        <v>1</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="50">
+        <v>2</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="48">
+        <v>2</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="48">
+        <v>3</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="50">
+        <v>3</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="54"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="50">
+        <v>4</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="47">
+        <v>4</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="48">
+        <v>5</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="50">
+        <v>6</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="47">
+        <v>7</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="54"/>
+    </row>
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="48">
+        <v>8</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="54"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="50">
+        <v>9</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="54"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="47">
+        <v>10</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="56" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+    </row>
+    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="48">
+        <v>1</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="48">
+        <v>1</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="54"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="48">
+        <v>1</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="50">
+        <v>1</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="54"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="48">
+        <v>1</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="47">
+        <v>1</v>
+      </c>
+      <c r="G60" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="50">
+        <v>2</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="48">
+        <v>2</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="54"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="48">
+        <v>3</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="50">
+        <v>3</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="54"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="50">
+        <v>4</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="47">
+        <v>4</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="54"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="48">
+        <v>5</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="54"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="50">
+        <v>6</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="54"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="47">
+        <v>7</v>
+      </c>
+      <c r="G66" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B67" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="48">
+        <v>8</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="54"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="50">
+        <v>9</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="47">
+        <v>10</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="54"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="48">
+        <v>25</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="49">
+        <v>43972</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomeWork_db_002.xlsx
+++ b/HomeWork_db_002.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\GeekBrains\Знакомство с базами данных\Семинары\Урок 2. Работа с данными из разных таблиц\HomeWork_db_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC7A74-8A10-403F-A576-04E14163EE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0525AC-2D9C-4DF5-85EE-A44647B1CAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чему будет равна выборка" sheetId="1" r:id="rId1"/>
     <sheet name="Что будет результатом JOINов" sheetId="2" r:id="rId2"/>
+    <sheet name="Дополнительное задание" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="67">
   <si>
     <t>Общий список</t>
   </si>
@@ -212,13 +213,29 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>Что будет результатом выборки</t>
+  </si>
+  <si>
+    <t>SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей
+Адрес</t>
+  </si>
+  <si>
+    <t>SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>Сначала выполняем "Люди RIGHT JOIN Адреса ON id = Чей адрес"</t>
+  </si>
+  <si>
+    <t>Затем выполняем SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей адрес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +288,17 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +349,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,8 +377,14 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -579,11 +617,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -681,13 +784,13 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -695,33 +798,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -734,13 +837,51 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1166,7 @@
   <dimension ref="A2:K55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E4110-492C-475B-85B6-2D8BE1B4FA9F}">
-  <dimension ref="A2:R70"/>
+  <dimension ref="A2:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,87 +2471,51 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="60" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="60" t="s">
+      <c r="C25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E25" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F25" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G25" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H25" s="63" t="s">
         <v>5</v>
-      </c>
-      <c r="I23" s="54"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="48">
-        <v>1</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="48">
-        <v>1</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="54"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>1</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="50">
-        <v>1</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>52</v>
       </c>
       <c r="I25" s="54"/>
     </row>
@@ -2427,35 +2532,35 @@
       <c r="E26" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>19</v>
+      <c r="F26" s="48">
+        <v>1</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="50">
-        <v>2</v>
-      </c>
-      <c r="C27" s="50" t="s">
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="48">
+        <v>1</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="51">
-        <v>37152</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="48">
-        <v>2</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>16</v>
+      <c r="D27" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>52</v>
@@ -2464,133 +2569,133 @@
     </row>
     <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D28" s="49">
-        <v>30429</v>
+        <v>32916</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="50">
-        <v>3</v>
-      </c>
-      <c r="G28" s="50" t="s">
+      <c r="F28" s="47">
+        <v>1</v>
+      </c>
+      <c r="G28" s="47" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I28" s="54"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D29" s="51">
-        <v>35936</v>
+        <v>37152</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="47">
-        <v>4</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>23</v>
+      <c r="F29" s="48">
+        <v>2</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="H29" s="54" t="s">
         <v>52</v>
       </c>
       <c r="I29" s="54"/>
     </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
+    <row r="30" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="48">
+        <v>3</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="50">
+        <v>3</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="50">
+        <v>4</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="47">
+        <v>4</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="60" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="60" t="s">
+      <c r="C34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E34" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F34" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G34" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H34" s="63" t="s">
         <v>5</v>
-      </c>
-      <c r="I32" s="54"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="48">
-        <v>1</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="48">
-        <v>1</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="54"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="48">
-        <v>1</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="50">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="54" t="s">
-        <v>52</v>
       </c>
       <c r="I34" s="54"/>
     </row>
@@ -2607,35 +2712,35 @@
       <c r="E35" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="47">
-        <v>1</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>19</v>
+      <c r="F35" s="48">
+        <v>1</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I35" s="54"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="50">
-        <v>2</v>
-      </c>
-      <c r="C36" s="50" t="s">
+    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="48">
+        <v>1</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="51">
-        <v>37152</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="48">
-        <v>2</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>16</v>
+      <c r="D36" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="50">
+        <v>1</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="H36" s="54" t="s">
         <v>52</v>
@@ -2644,46 +2749,46 @@
     </row>
     <row r="37" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D37" s="49">
-        <v>30429</v>
+        <v>32916</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="50">
-        <v>3</v>
-      </c>
-      <c r="G37" s="50" t="s">
+      <c r="F37" s="47">
+        <v>1</v>
+      </c>
+      <c r="G37" s="47" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D38" s="51">
-        <v>35936</v>
+        <v>37152</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="47">
-        <v>4</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>23</v>
+      <c r="F38" s="48">
+        <v>2</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="H38" s="54" t="s">
         <v>52</v>
@@ -2692,109 +2797,109 @@
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="48">
+        <v>3</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="50">
+        <v>3</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="50">
+        <v>4</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="47">
+        <v>4</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="48">
         <v>25</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C41" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D41" s="49">
         <v>43972</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E41" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="54"/>
-    </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="58" t="s">
+      <c r="F41" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="60" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+    </row>
+    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="60" t="s">
+      <c r="C44" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E44" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F44" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G44" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H44" s="63" t="s">
         <v>5</v>
-      </c>
-      <c r="I42" s="54"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="48">
-        <v>1</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="48">
-        <v>1</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="48">
-        <v>1</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="50">
-        <v>1</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="54" t="s">
-        <v>52</v>
       </c>
       <c r="I44" s="54"/>
     </row>
@@ -2811,35 +2916,35 @@
       <c r="E45" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="47">
-        <v>1</v>
-      </c>
-      <c r="G45" s="47" t="s">
-        <v>19</v>
+      <c r="F45" s="48">
+        <v>1</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I45" s="54"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="50">
-        <v>2</v>
-      </c>
-      <c r="C46" s="50" t="s">
+    <row r="46" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="48">
+        <v>1</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="51">
-        <v>37152</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="48">
-        <v>2</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>16</v>
+      <c r="D46" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="50">
+        <v>1</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="H46" s="54" t="s">
         <v>52</v>
@@ -2848,46 +2953,46 @@
     </row>
     <row r="47" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D47" s="49">
-        <v>30429</v>
+        <v>32916</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="50">
-        <v>3</v>
-      </c>
-      <c r="G47" s="50" t="s">
+      <c r="F47" s="47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="47" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D48" s="51">
-        <v>35936</v>
+        <v>37152</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="47">
-        <v>4</v>
-      </c>
-      <c r="G48" s="47" t="s">
-        <v>23</v>
+      <c r="F48" s="48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="H48" s="54" t="s">
         <v>52</v>
@@ -2895,23 +3000,23 @@
       <c r="I48" s="54"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="48">
-        <v>5</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>28</v>
+      <c r="B49" s="48">
+        <v>3</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="50">
+        <v>3</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="54" t="s">
         <v>52</v>
@@ -2919,23 +3024,23 @@
       <c r="I49" s="54"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="50" t="s">
-        <v>61</v>
+      <c r="B50" s="50">
+        <v>4</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="D50" s="51">
+        <v>35936</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="50">
-        <v>6</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="F50" s="47">
+        <v>4</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="H50" s="54" t="s">
         <v>52</v>
@@ -2955,18 +3060,18 @@
       <c r="E51" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="47">
-        <v>7</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>26</v>
+      <c r="F51" s="48">
+        <v>5</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="50" t="s">
         <v>61</v>
       </c>
@@ -2979,14 +3084,14 @@
       <c r="E52" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="48">
-        <v>8</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>56</v>
+      <c r="F52" s="50">
+        <v>6</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I52" s="54"/>
     </row>
@@ -3003,18 +3108,18 @@
       <c r="E53" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="50">
-        <v>9</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>57</v>
+      <c r="F53" s="47">
+        <v>7</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="H53" s="54" t="s">
         <v>54</v>
       </c>
       <c r="I53" s="54"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="50" t="s">
         <v>61</v>
       </c>
@@ -3027,98 +3132,98 @@
       <c r="E54" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="47">
-        <v>10</v>
-      </c>
-      <c r="G54" s="47" t="s">
-        <v>58</v>
+      <c r="F54" s="48">
+        <v>8</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="H54" s="54" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="54"/>
     </row>
-    <row r="56" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="58" t="s">
+    <row r="55" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="50">
+        <v>9</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="54"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="47">
+        <v>10</v>
+      </c>
+      <c r="G56" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="54"/>
+    </row>
+    <row r="58" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="60" t="s">
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+    </row>
+    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="60" t="s">
+      <c r="C59" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E59" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F59" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G59" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="63" t="s">
+      <c r="H59" s="63" t="s">
         <v>5</v>
-      </c>
-      <c r="I57" s="54"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="48">
-        <v>1</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="48">
-        <v>1</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="54"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="48">
-        <v>1</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="49">
-        <v>32916</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="50">
-        <v>1</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>52</v>
       </c>
       <c r="I59" s="54"/>
     </row>
@@ -3135,35 +3240,35 @@
       <c r="E60" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="47">
-        <v>1</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>19</v>
+      <c r="F60" s="48">
+        <v>1</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>11</v>
       </c>
       <c r="H60" s="54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="50">
-        <v>2</v>
-      </c>
-      <c r="C61" s="50" t="s">
+    <row r="61" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="48">
+        <v>1</v>
+      </c>
+      <c r="C61" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="51">
-        <v>37152</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="48">
-        <v>2</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>16</v>
+      <c r="D61" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="50">
+        <v>1</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="H61" s="54" t="s">
         <v>52</v>
@@ -3172,46 +3277,46 @@
     </row>
     <row r="62" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D62" s="49">
-        <v>30429</v>
+        <v>32916</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="50">
-        <v>3</v>
-      </c>
-      <c r="G62" s="50" t="s">
+      <c r="F62" s="47">
+        <v>1</v>
+      </c>
+      <c r="G62" s="47" t="s">
         <v>19</v>
       </c>
       <c r="H62" s="54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D63" s="51">
-        <v>35936</v>
+        <v>37152</v>
       </c>
       <c r="E63" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="47">
-        <v>4</v>
-      </c>
-      <c r="G63" s="47" t="s">
-        <v>23</v>
+      <c r="F63" s="48">
+        <v>2</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="H63" s="54" t="s">
         <v>52</v>
@@ -3219,23 +3324,23 @@
       <c r="I63" s="54"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="48">
-        <v>5</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>28</v>
+      <c r="B64" s="48">
+        <v>3</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="50">
+        <v>3</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="H64" s="54" t="s">
         <v>52</v>
@@ -3243,23 +3348,23 @@
       <c r="I64" s="54"/>
     </row>
     <row r="65" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="50" t="s">
-        <v>61</v>
+      <c r="B65" s="50">
+        <v>4</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>61</v>
+        <v>22</v>
+      </c>
+      <c r="D65" s="51">
+        <v>35936</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" s="50">
-        <v>6</v>
-      </c>
-      <c r="G65" s="50" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="F65" s="47">
+        <v>4</v>
+      </c>
+      <c r="G65" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="H65" s="54" t="s">
         <v>52</v>
@@ -3279,18 +3384,18 @@
       <c r="E66" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="47">
-        <v>7</v>
-      </c>
-      <c r="G66" s="47" t="s">
-        <v>26</v>
+      <c r="F66" s="48">
+        <v>5</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="50" t="s">
         <v>61</v>
       </c>
@@ -3303,14 +3408,14 @@
       <c r="E67" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F67" s="48">
-        <v>8</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>56</v>
+      <c r="F67" s="50">
+        <v>6</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="H67" s="54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I67" s="54"/>
     </row>
@@ -3327,18 +3432,18 @@
       <c r="E68" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="50">
-        <v>9</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>57</v>
+      <c r="F68" s="47">
+        <v>7</v>
+      </c>
+      <c r="G68" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="H68" s="54" t="s">
         <v>54</v>
       </c>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="50" t="s">
         <v>61</v>
       </c>
@@ -3351,11 +3456,11 @@
       <c r="E69" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="47">
-        <v>10</v>
-      </c>
-      <c r="G69" s="47" t="s">
-        <v>58</v>
+      <c r="F69" s="48">
+        <v>8</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="H69" s="54" t="s">
         <v>50</v>
@@ -3363,28 +3468,1081 @@
       <c r="I69" s="54"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="48">
+      <c r="B70" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="50">
+        <v>9</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I70" s="54"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="47">
+        <v>10</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="54"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="48">
         <v>25</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C72" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D72" s="49">
         <v>43972</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E72" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="I70" s="54"/>
+      <c r="F72" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317FE0FF-900E-4507-9438-EFA4D49EE623}">
+  <dimension ref="B2:R51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="64"/>
+    <col min="3" max="3" width="17.5703125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="17" style="64" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="64"/>
+    <col min="8" max="8" width="17.5703125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="64" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="64"/>
+    <col min="12" max="12" width="25.42578125" style="64" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="64" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="64"/>
+    <col min="15" max="15" width="12.85546875" style="64" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="64" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="64" customWidth="1"/>
+    <col min="18" max="18" width="14" style="64" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="G2" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="O2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+    </row>
+    <row r="3" spans="2:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="49">
+        <v>32916</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48">
+        <v>123</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="48">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="51">
+        <v>37152</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1</v>
+      </c>
+      <c r="H5" s="50">
+        <v>124</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="48">
+        <v>3</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="49">
+        <v>30429</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
+        <v>125</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="51">
+        <v>35936</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="48">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48">
+        <v>126</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="48">
+        <v>2</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="48">
+        <v>25</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="49">
+        <v>43972</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1</v>
+      </c>
+      <c r="H8" s="50">
+        <v>127</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="50">
+        <v>3</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="47">
+        <v>2</v>
+      </c>
+      <c r="H9" s="47">
+        <v>527</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="47">
+        <v>4</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="48">
+        <v>3</v>
+      </c>
+      <c r="H10" s="48">
+        <v>234</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="48">
+        <v>5</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="50">
+        <v>3</v>
+      </c>
+      <c r="H11" s="50">
+        <v>235</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="50">
+        <v>6</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="47">
+        <v>4</v>
+      </c>
+      <c r="H12" s="47">
+        <v>456</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="47">
+        <v>7</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="48">
+        <v>11</v>
+      </c>
+      <c r="H13" s="48">
+        <v>999</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="48">
+        <v>8</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="50">
+        <v>12</v>
+      </c>
+      <c r="H14" s="50">
+        <v>997</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="50">
+        <v>9</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="47">
+        <v>13</v>
+      </c>
+      <c r="H15" s="47">
+        <v>995</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="47">
+        <v>10</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="48">
+        <v>14</v>
+      </c>
+      <c r="H16" s="48">
+        <v>993</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="50">
+        <v>15</v>
+      </c>
+      <c r="H17" s="50">
+        <v>991</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="48">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49">
+        <v>32916</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="48">
+        <v>1</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="48">
+        <v>1</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="49">
+        <v>32916</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="50">
+        <v>1</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="48">
+        <v>1</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="49">
+        <v>32916</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="47">
+        <v>1</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="50">
+        <v>2</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="51">
+        <v>37152</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="48">
+        <v>2</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="48">
+        <v>3</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="49">
+        <v>30429</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="50">
+        <v>3</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="50">
+        <v>4</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="51">
+        <v>35936</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="47">
+        <v>4</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="48">
+        <v>5</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="50">
+        <v>6</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="47">
+        <v>7</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="48">
+        <v>8</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="50">
+        <v>9</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="54"/>
+    </row>
+    <row r="35" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="47">
+        <v>10</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="3:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+    </row>
+    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="J38" s="63"/>
+    </row>
+    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="77"/>
+      <c r="E39" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="77"/>
+      <c r="J39" s="74"/>
+    </row>
+    <row r="40" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="77"/>
+      <c r="E40" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="77"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="77"/>
+      <c r="J40" s="74"/>
+    </row>
+    <row r="41" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="77"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="77"/>
+      <c r="J41" s="74"/>
+    </row>
+    <row r="42" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="77"/>
+      <c r="E42" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="77"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="77"/>
+      <c r="J42" s="75"/>
+    </row>
+    <row r="43" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="77"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="77"/>
+      <c r="J43" s="74"/>
+    </row>
+    <row r="44" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="77"/>
+      <c r="E44" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="77"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="77"/>
+      <c r="J44" s="75"/>
+    </row>
+    <row r="45" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="77"/>
+      <c r="E45" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="77"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="77"/>
+      <c r="J45" s="75"/>
+    </row>
+    <row r="46" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="77"/>
+      <c r="E46" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="77"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="77"/>
+      <c r="J46" s="75"/>
+    </row>
+    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="77"/>
+      <c r="E47" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="77"/>
+      <c r="J47" s="75"/>
+    </row>
+    <row r="48" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="77"/>
+      <c r="E48" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="77"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="77"/>
+      <c r="J48" s="75"/>
+    </row>
+    <row r="49" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="77"/>
+      <c r="E49" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="77"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="77"/>
+      <c r="J49" s="75"/>
+    </row>
+    <row r="50" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="77"/>
+      <c r="E50" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="77"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="77"/>
+      <c r="J50" s="75"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomeWork_db_002.xlsx
+++ b/HomeWork_db_002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\GeekBrains\Знакомство с базами данных\Семинары\Урок 2. Работа с данными из разных таблиц\HomeWork_db_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0525AC-2D9C-4DF5-85EE-A44647B1CAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E042A026-A0DF-4064-B2FB-705A504892DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чему будет равна выборка" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="67">
   <si>
     <t>Общий список</t>
   </si>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,9 @@
         <v>2</v>
       </c>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1637,7 +1639,9 @@
         <v>32916</v>
       </c>
       <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1650,7 +1654,9 @@
         <v>32916</v>
       </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1663,7 +1669,9 @@
         <v>37152</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1676,7 +1684,9 @@
         <v>30429</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1689,7 +1699,9 @@
         <v>30430</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1702,7 +1714,9 @@
         <v>35936</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,7 +1729,9 @@
         <v>39276</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1728,7 +1744,9 @@
         <v>39276</v>
       </c>
       <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,7 +1759,9 @@
         <v>31841</v>
       </c>
       <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1754,7 +1774,9 @@
         <v>32736</v>
       </c>
       <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1767,7 +1789,9 @@
         <v>35438</v>
       </c>
       <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="F33" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1780,7 +1804,9 @@
         <v>35438</v>
       </c>
       <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,7 +1819,9 @@
         <v>35402</v>
       </c>
       <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E4110-492C-475B-85B6-2D8BE1B4FA9F}">
   <dimension ref="A2:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:E56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
